--- a/obsidian-notes/spreadsheets/periodic-table.xlsx
+++ b/obsidian-notes/spreadsheets/periodic-table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4179229009c49077/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\iCloudDrive\iCloud~md~obsidian\Ishan's notes\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="315" documentId="8_{A2DA0BEF-85C8-43DE-972C-1F49E8052D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47000D94-C847-4A89-9F06-1E83D43F14C3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802349D7-9128-4AD6-9FA7-51369F23005D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" xr2:uid="{267BF456-EDF0-4F7C-AF2E-F688F98756E9}"/>
   </bookViews>
@@ -338,9 +338,6 @@
     <t>Ja</t>
   </si>
   <si>
-    <t>*Janium named after ninth planet, Janus</t>
-  </si>
-  <si>
     <t>Vestium</t>
   </si>
   <si>
@@ -666,6 +663,9 @@
   </si>
   <si>
     <t>*Popularium named by a Brit after "the people"</t>
+  </si>
+  <si>
+    <t>*Janium named after eighth planet, Janus</t>
   </si>
 </sst>
 </file>
@@ -819,10 +819,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1124,8 +1120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1273159-333D-42AD-962D-D978BF869110}">
   <dimension ref="B2:K86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1167,13 +1163,13 @@
         <v>35</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="2:11" s="4" customFormat="1" ht="10.5" x14ac:dyDescent="0.4">
@@ -1190,13 +1186,13 @@
         <v>3</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="2:11" s="4" customFormat="1" ht="10.5" x14ac:dyDescent="0.4">
@@ -1236,7 +1232,7 @@
         <v>54</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="2:11" s="4" customFormat="1" ht="10.5" x14ac:dyDescent="0.4">
@@ -1256,7 +1252,7 @@
         <v>8</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.55000000000000004">
@@ -1295,7 +1291,7 @@
     </row>
     <row r="10" spans="2:11" s="5" customFormat="1" ht="23.1" x14ac:dyDescent="0.85">
       <c r="E10" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>58</v>
@@ -1305,28 +1301,28 @@
       </c>
       <c r="H10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="2:11" s="6" customFormat="1" ht="10.5" x14ac:dyDescent="0.4">
       <c r="E11" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="2:11" s="4" customFormat="1" ht="10.5" x14ac:dyDescent="0.4">
@@ -1357,14 +1353,14 @@
         <v>60</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H13" s="1"/>
       <c r="J13" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="2:11" s="6" customFormat="1" ht="10.5" x14ac:dyDescent="0.4">
@@ -1375,14 +1371,14 @@
         <v>11</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H14" s="3"/>
       <c r="J14" s="3" t="s">
         <v>96</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="2:11" s="4" customFormat="1" ht="10.5" x14ac:dyDescent="0.4">
@@ -1413,14 +1409,14 @@
         <v>95</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H16" s="1"/>
       <c r="J16" s="1" t="s">
         <v>93</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="5:11" s="6" customFormat="1" ht="10.5" x14ac:dyDescent="0.4">
@@ -1431,14 +1427,14 @@
         <v>94</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="5:11" s="4" customFormat="1" ht="10.5" x14ac:dyDescent="0.4">
@@ -1466,14 +1462,14 @@
         <v>41</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H19" s="1"/>
       <c r="J19" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>79</v>
@@ -1484,14 +1480,14 @@
         <v>14</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H20" s="3"/>
       <c r="J20" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>80</v>
@@ -1522,14 +1518,14 @@
         <v>76</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>55</v>
       </c>
       <c r="H22" s="1"/>
       <c r="J22" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>99</v>
@@ -1540,14 +1536,14 @@
         <v>15</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H23" s="3"/>
       <c r="J23" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>98</v>
@@ -1578,14 +1574,14 @@
         <v>62</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H25" s="1"/>
       <c r="J25" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>82</v>
@@ -1596,14 +1592,14 @@
         <v>16</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H26" s="3"/>
       <c r="J26" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>81</v>
@@ -1634,14 +1630,14 @@
         <v>36</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H28" s="1"/>
       <c r="J28" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K28" s="1"/>
     </row>
@@ -1650,14 +1646,14 @@
         <v>17</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H29" s="3"/>
       <c r="J29" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K29" s="3"/>
     </row>
@@ -1686,14 +1682,14 @@
         <v>75</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H31" s="1"/>
       <c r="J31" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K31" s="1"/>
     </row>
@@ -1702,14 +1698,14 @@
         <v>18</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H32" s="3"/>
       <c r="J32" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K32" s="3"/>
     </row>
@@ -1745,7 +1741,7 @@
       </c>
       <c r="H34" s="1"/>
       <c r="J34" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K34" s="1"/>
     </row>
@@ -1761,7 +1757,7 @@
       </c>
       <c r="H35" s="3"/>
       <c r="J35" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K35" s="3"/>
     </row>
@@ -1790,14 +1786,14 @@
         <v>72</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>71</v>
       </c>
       <c r="H37" s="1"/>
       <c r="J37" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K37" s="1"/>
     </row>
@@ -1806,14 +1802,14 @@
         <v>20</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H38" s="3"/>
       <c r="J38" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K38" s="3"/>
     </row>
@@ -1851,17 +1847,17 @@
         <v>70</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>92</v>
       </c>
       <c r="H40" s="1"/>
       <c r="J40" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K40" s="1"/>
     </row>
@@ -1873,17 +1869,17 @@
         <v>21</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H41" s="3"/>
       <c r="J41" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K41" s="3"/>
     </row>
@@ -1953,7 +1949,7 @@
       </c>
       <c r="H44" s="3"/>
       <c r="J44" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K44" s="3"/>
     </row>
@@ -1997,11 +1993,11 @@
         <v>90</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H46" s="1"/>
       <c r="J46" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K46" s="1"/>
     </row>
@@ -2019,11 +2015,11 @@
         <v>89</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H47" s="3"/>
       <c r="J47" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K47" s="3"/>
     </row>
@@ -2067,11 +2063,11 @@
         <v>88</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H49" s="1"/>
       <c r="J49" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K49" s="1"/>
     </row>
@@ -2089,11 +2085,11 @@
         <v>87</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H50" s="3"/>
       <c r="J50" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K50" s="3"/>
     </row>
@@ -2128,10 +2124,10 @@
         <v>66</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H52" s="1"/>
     </row>
@@ -2146,10 +2142,10 @@
         <v>33</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H53" s="3"/>
     </row>
@@ -2181,13 +2177,13 @@
         <v>77</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>73</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>41</v>
@@ -2202,40 +2198,40 @@
         <v>28</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>74</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H56" s="3"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B61" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.55000000000000004">
@@ -2245,117 +2241,117 @@
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" t="s">
-        <v>100</v>
+        <v>209</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B68" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B69" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B70" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B74" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B75" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B76" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B77" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B78" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B79" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B80" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B81" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B82" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B83" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B84" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B85" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B86" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/obsidian-notes/spreadsheets/periodic-table.xlsx
+++ b/obsidian-notes/spreadsheets/periodic-table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\iCloudDrive\iCloud~md~obsidian\Ishan's notes\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802349D7-9128-4AD6-9FA7-51369F23005D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D580BD86-3E72-47AD-8018-750280EE5916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" xr2:uid="{267BF456-EDF0-4F7C-AF2E-F688F98756E9}"/>
   </bookViews>
@@ -695,12 +695,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -780,7 +798,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -796,9 +814,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -822,9 +861,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -862,7 +901,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -968,7 +1007,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1110,7 +1149,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1120,505 +1159,505 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1273159-333D-42AD-962D-D978BF869110}">
   <dimension ref="B2:K86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="2" spans="2:11" s="4" customFormat="1" ht="10.5" x14ac:dyDescent="0.4">
-      <c r="B2" s="2">
+      <c r="B2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="13">
         <v>3</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="13">
         <v>11</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="13">
         <v>19</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="13">
         <v>37</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="13">
         <v>55</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="13">
         <v>87</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="23.1" x14ac:dyDescent="0.85">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="14" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="4" spans="2:11" s="4" customFormat="1" ht="10.5" x14ac:dyDescent="0.4">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="15" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="5" spans="2:11" s="4" customFormat="1" ht="10.5" x14ac:dyDescent="0.4">
-      <c r="C5" s="2">
+      <c r="C5" s="13">
         <v>4</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="13">
         <v>12</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="13">
         <v>20</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="13">
         <v>38</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="13">
         <v>56</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="13">
         <v>88</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="23.1" x14ac:dyDescent="0.85">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="14" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="7" spans="2:11" s="4" customFormat="1" ht="10.5" x14ac:dyDescent="0.4">
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="15" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="16" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="2:11" s="4" customFormat="1" ht="10.5" x14ac:dyDescent="0.4">
-      <c r="E9" s="2">
+      <c r="E9" s="13">
         <v>21</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="13">
         <v>39</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="13">
         <v>71</v>
       </c>
       <c r="H9" s="2">
         <v>103</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="18">
         <v>57</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="13">
         <v>89</v>
       </c>
     </row>
     <row r="10" spans="2:11" s="5" customFormat="1" ht="23.1" x14ac:dyDescent="0.85">
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="14" t="s">
         <v>95</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" s="14" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="11" spans="2:11" s="6" customFormat="1" ht="10.5" x14ac:dyDescent="0.4">
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="15" t="s">
         <v>119</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="15" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="12" spans="2:11" s="4" customFormat="1" ht="10.5" x14ac:dyDescent="0.4">
-      <c r="E12" s="2">
+      <c r="E12" s="13">
         <v>22</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="13">
         <v>40</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="13">
         <v>72</v>
       </c>
       <c r="H12" s="2">
         <v>104</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="13">
         <v>58</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="13">
         <v>90</v>
       </c>
     </row>
     <row r="13" spans="2:11" s="5" customFormat="1" ht="23.1" x14ac:dyDescent="0.85">
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="14" t="s">
         <v>166</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" s="14" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="14" spans="2:11" s="6" customFormat="1" ht="10.5" x14ac:dyDescent="0.4">
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="15" t="s">
         <v>165</v>
       </c>
       <c r="H14" s="3"/>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="15" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="15" spans="2:11" s="4" customFormat="1" ht="10.5" x14ac:dyDescent="0.4">
-      <c r="E15" s="2">
+      <c r="E15" s="13">
         <v>23</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="13">
         <v>41</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="13">
         <v>73</v>
       </c>
       <c r="H15" s="2">
         <v>105</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="13">
         <v>59</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="13">
         <v>91</v>
       </c>
     </row>
     <row r="16" spans="2:11" s="5" customFormat="1" ht="23.1" x14ac:dyDescent="0.85">
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="14" t="s">
         <v>164</v>
       </c>
       <c r="H16" s="1"/>
-      <c r="J16" s="1" t="s">
+      <c r="J16" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K16" s="14" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="17" spans="5:11" s="6" customFormat="1" ht="10.5" x14ac:dyDescent="0.4">
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="15" t="s">
         <v>163</v>
       </c>
       <c r="H17" s="3"/>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="15" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="18" spans="5:11" s="4" customFormat="1" ht="10.5" x14ac:dyDescent="0.4">
-      <c r="E18" s="2">
+      <c r="E18" s="13">
         <v>24</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="13">
         <v>42</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="13">
         <v>74</v>
       </c>
       <c r="H18" s="2">
         <v>106</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="13">
         <v>60</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="13">
         <v>92</v>
       </c>
     </row>
     <row r="19" spans="5:11" s="5" customFormat="1" ht="23.1" x14ac:dyDescent="0.85">
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="14" t="s">
         <v>162</v>
       </c>
       <c r="H19" s="1"/>
-      <c r="J19" s="1" t="s">
+      <c r="J19" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K19" s="14" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="20" spans="5:11" s="6" customFormat="1" ht="10.5" x14ac:dyDescent="0.4">
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="15" t="s">
         <v>161</v>
       </c>
       <c r="H20" s="3"/>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="15" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="21" spans="5:11" s="4" customFormat="1" ht="10.5" x14ac:dyDescent="0.4">
-      <c r="E21" s="2">
+      <c r="E21" s="13">
         <v>25</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="13">
         <v>43</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="13">
         <v>75</v>
       </c>
       <c r="H21" s="2">
         <v>107</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="13">
         <v>61</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21" s="13">
         <v>93</v>
       </c>
     </row>
     <row r="22" spans="5:11" s="5" customFormat="1" ht="23.1" x14ac:dyDescent="0.85">
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="14" t="s">
         <v>55</v>
       </c>
       <c r="H22" s="1"/>
-      <c r="J22" s="1" t="s">
+      <c r="J22" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K22" s="14" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="23" spans="5:11" s="6" customFormat="1" ht="10.5" x14ac:dyDescent="0.4">
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="15" t="s">
         <v>147</v>
       </c>
       <c r="H23" s="3"/>
-      <c r="J23" s="3" t="s">
+      <c r="J23" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="K23" s="15" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="24" spans="5:11" s="4" customFormat="1" ht="10.5" x14ac:dyDescent="0.4">
-      <c r="E24" s="2">
+      <c r="E24" s="13">
         <v>26</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="13">
         <v>44</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="13">
         <v>76</v>
       </c>
       <c r="H24" s="2">
         <v>108</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="13">
         <v>62</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="13">
         <v>94</v>
       </c>
     </row>
     <row r="25" spans="5:11" s="5" customFormat="1" ht="23.1" x14ac:dyDescent="0.85">
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="14" t="s">
         <v>154</v>
       </c>
       <c r="H25" s="1"/>
-      <c r="J25" s="1" t="s">
+      <c r="J25" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="K25" s="14" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="26" spans="5:11" s="6" customFormat="1" ht="10.5" x14ac:dyDescent="0.4">
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="15" t="s">
         <v>153</v>
       </c>
       <c r="H26" s="3"/>
-      <c r="J26" s="3" t="s">
+      <c r="J26" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="K26" s="15" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="27" spans="5:11" s="4" customFormat="1" ht="10.5" x14ac:dyDescent="0.4">
-      <c r="E27" s="2">
+      <c r="E27" s="13">
         <v>27</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="13">
         <v>45</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="13">
         <v>77</v>
       </c>
       <c r="H27" s="2">
         <v>109</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J27" s="13">
         <v>63</v>
       </c>
       <c r="K27" s="2">
@@ -1626,51 +1665,51 @@
       </c>
     </row>
     <row r="28" spans="5:11" s="5" customFormat="1" ht="23.1" x14ac:dyDescent="0.85">
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="14" t="s">
         <v>160</v>
       </c>
       <c r="H28" s="1"/>
-      <c r="J28" s="1" t="s">
+      <c r="J28" s="14" t="s">
         <v>179</v>
       </c>
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="5:11" s="6" customFormat="1" ht="10.5" x14ac:dyDescent="0.4">
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="15" t="s">
         <v>159</v>
       </c>
       <c r="H29" s="3"/>
-      <c r="J29" s="3" t="s">
+      <c r="J29" s="15" t="s">
         <v>178</v>
       </c>
       <c r="K29" s="3"/>
     </row>
     <row r="30" spans="5:11" s="4" customFormat="1" ht="10.5" x14ac:dyDescent="0.4">
-      <c r="E30" s="2">
+      <c r="E30" s="13">
         <v>28</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="13">
         <v>46</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="13">
         <v>78</v>
       </c>
       <c r="H30" s="2">
         <v>110</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30" s="13">
         <v>64</v>
       </c>
       <c r="K30" s="2">
@@ -1678,51 +1717,51 @@
       </c>
     </row>
     <row r="31" spans="5:11" s="5" customFormat="1" ht="23.1" x14ac:dyDescent="0.85">
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="14" t="s">
         <v>158</v>
       </c>
       <c r="H31" s="1"/>
-      <c r="J31" s="1" t="s">
+      <c r="J31" s="14" t="s">
         <v>181</v>
       </c>
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="5:11" s="6" customFormat="1" ht="10.5" x14ac:dyDescent="0.4">
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="15" t="s">
         <v>157</v>
       </c>
       <c r="H32" s="3"/>
-      <c r="J32" s="3" t="s">
+      <c r="J32" s="15" t="s">
         <v>180</v>
       </c>
       <c r="K32" s="3"/>
     </row>
     <row r="33" spans="3:11" s="4" customFormat="1" ht="10.5" x14ac:dyDescent="0.4">
-      <c r="E33" s="2">
+      <c r="E33" s="13">
         <v>29</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="13">
         <v>47</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="13">
         <v>79</v>
       </c>
       <c r="H33" s="2">
         <v>111</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J33" s="13">
         <v>65</v>
       </c>
       <c r="K33" s="2">
@@ -1730,51 +1769,51 @@
       </c>
     </row>
     <row r="34" spans="3:11" s="5" customFormat="1" ht="23.1" x14ac:dyDescent="0.85">
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="14" t="s">
         <v>67</v>
       </c>
       <c r="H34" s="1"/>
-      <c r="J34" s="1" t="s">
+      <c r="J34" s="14" t="s">
         <v>183</v>
       </c>
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="3:11" s="6" customFormat="1" ht="10.5" x14ac:dyDescent="0.4">
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G35" s="15" t="s">
         <v>30</v>
       </c>
       <c r="H35" s="3"/>
-      <c r="J35" s="3" t="s">
+      <c r="J35" s="15" t="s">
         <v>182</v>
       </c>
       <c r="K35" s="3"/>
     </row>
     <row r="36" spans="3:11" s="4" customFormat="1" ht="10.5" x14ac:dyDescent="0.4">
-      <c r="E36" s="2">
+      <c r="E36" s="13">
         <v>30</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="13">
         <v>48</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="10">
         <v>80</v>
       </c>
       <c r="H36" s="2">
         <v>112</v>
       </c>
-      <c r="J36" s="2">
+      <c r="J36" s="13">
         <v>66</v>
       </c>
       <c r="K36" s="2">
@@ -1782,57 +1821,57 @@
       </c>
     </row>
     <row r="37" spans="3:11" s="5" customFormat="1" ht="23.1" x14ac:dyDescent="0.85">
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" s="11" t="s">
         <v>71</v>
       </c>
       <c r="H37" s="1"/>
-      <c r="J37" s="1" t="s">
+      <c r="J37" s="14" t="s">
         <v>203</v>
       </c>
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="3:11" s="6" customFormat="1" ht="10.5" x14ac:dyDescent="0.4">
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G38" s="12" t="s">
         <v>31</v>
       </c>
       <c r="H38" s="3"/>
-      <c r="J38" s="3" t="s">
+      <c r="J38" s="15" t="s">
         <v>202</v>
       </c>
       <c r="K38" s="3"/>
     </row>
     <row r="39" spans="3:11" s="4" customFormat="1" ht="10.5" x14ac:dyDescent="0.4">
-      <c r="C39" s="2">
+      <c r="C39" s="13">
         <v>5</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="13">
         <v>13</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="13">
         <v>31</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="13">
         <v>49</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="13">
         <v>81</v>
       </c>
       <c r="H39" s="2">
         <v>113</v>
       </c>
-      <c r="J39" s="2">
+      <c r="J39" s="13">
         <v>67</v>
       </c>
       <c r="K39" s="2">
@@ -1840,69 +1879,69 @@
       </c>
     </row>
     <row r="40" spans="3:11" s="5" customFormat="1" ht="23.1" x14ac:dyDescent="0.85">
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" s="14" t="s">
         <v>92</v>
       </c>
       <c r="H40" s="1"/>
-      <c r="J40" s="1" t="s">
+      <c r="J40" s="14" t="s">
         <v>197</v>
       </c>
       <c r="K40" s="1"/>
     </row>
     <row r="41" spans="3:11" s="6" customFormat="1" ht="10.5" x14ac:dyDescent="0.4">
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="G41" s="15" t="s">
         <v>106</v>
       </c>
       <c r="H41" s="3"/>
-      <c r="J41" s="3" t="s">
+      <c r="J41" s="15" t="s">
         <v>196</v>
       </c>
       <c r="K41" s="3"/>
     </row>
     <row r="42" spans="3:11" s="4" customFormat="1" ht="10.5" x14ac:dyDescent="0.4">
-      <c r="C42" s="2">
+      <c r="C42" s="13">
         <v>6</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="13">
         <v>14</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="13">
         <v>32</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="13">
         <v>50</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="13">
         <v>82</v>
       </c>
       <c r="H42" s="2">
         <v>114</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J42" s="13">
         <v>68</v>
       </c>
       <c r="K42" s="2">
@@ -1910,69 +1949,69 @@
       </c>
     </row>
     <row r="43" spans="3:11" s="5" customFormat="1" ht="23.1" x14ac:dyDescent="0.85">
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" s="14" t="s">
         <v>63</v>
       </c>
       <c r="H43" s="1"/>
-      <c r="J43" s="1" t="s">
+      <c r="J43" s="14" t="s">
         <v>88</v>
       </c>
       <c r="K43" s="1"/>
     </row>
     <row r="44" spans="3:11" s="6" customFormat="1" ht="10.5" x14ac:dyDescent="0.4">
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="G44" s="15" t="s">
         <v>39</v>
       </c>
       <c r="H44" s="3"/>
-      <c r="J44" s="3" t="s">
+      <c r="J44" s="15" t="s">
         <v>201</v>
       </c>
       <c r="K44" s="3"/>
     </row>
     <row r="45" spans="3:11" s="4" customFormat="1" ht="10.5" x14ac:dyDescent="0.4">
-      <c r="C45" s="2">
+      <c r="C45" s="7">
         <v>7</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="13">
         <v>15</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="13">
         <v>33</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="13">
         <v>51</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="13">
         <v>83</v>
       </c>
       <c r="H45" s="2">
         <v>115</v>
       </c>
-      <c r="J45" s="2">
+      <c r="J45" s="13">
         <v>69</v>
       </c>
       <c r="K45" s="2">
@@ -1980,69 +2019,69 @@
       </c>
     </row>
     <row r="46" spans="3:11" s="5" customFormat="1" ht="23.1" x14ac:dyDescent="0.85">
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G46" s="14" t="s">
         <v>192</v>
       </c>
       <c r="H46" s="1"/>
-      <c r="J46" s="1" t="s">
+      <c r="J46" s="14" t="s">
         <v>200</v>
       </c>
       <c r="K46" s="1"/>
     </row>
     <row r="47" spans="3:11" s="6" customFormat="1" ht="10.5" x14ac:dyDescent="0.4">
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F47" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="G47" s="15" t="s">
         <v>191</v>
       </c>
       <c r="H47" s="3"/>
-      <c r="J47" s="3" t="s">
+      <c r="J47" s="15" t="s">
         <v>199</v>
       </c>
       <c r="K47" s="3"/>
     </row>
     <row r="48" spans="3:11" s="4" customFormat="1" ht="10.5" x14ac:dyDescent="0.4">
-      <c r="C48" s="2">
+      <c r="C48" s="7">
         <v>8</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="13">
         <v>16</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="13">
         <v>34</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="13">
         <v>52</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G48" s="13">
         <v>84</v>
       </c>
       <c r="H48" s="2">
         <v>116</v>
       </c>
-      <c r="J48" s="2">
+      <c r="J48" s="13">
         <v>70</v>
       </c>
       <c r="K48" s="2">
@@ -2050,63 +2089,63 @@
       </c>
     </row>
     <row r="49" spans="2:11" s="5" customFormat="1" ht="23.1" x14ac:dyDescent="0.85">
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G49" s="14" t="s">
         <v>205</v>
       </c>
       <c r="H49" s="1"/>
-      <c r="J49" s="1" t="s">
+      <c r="J49" s="14" t="s">
         <v>143</v>
       </c>
       <c r="K49" s="1"/>
     </row>
     <row r="50" spans="2:11" s="6" customFormat="1" ht="10.5" x14ac:dyDescent="0.4">
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F50" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="G50" s="15" t="s">
         <v>124</v>
       </c>
       <c r="H50" s="3"/>
-      <c r="J50" s="3" t="s">
+      <c r="J50" s="15" t="s">
         <v>142</v>
       </c>
       <c r="K50" s="3"/>
     </row>
     <row r="51" spans="2:11" s="4" customFormat="1" ht="10.5" x14ac:dyDescent="0.4">
-      <c r="C51" s="2">
+      <c r="C51" s="7">
         <v>9</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="7">
         <v>17</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="10">
         <v>35</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="13">
         <v>53</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51" s="13">
         <v>85</v>
       </c>
       <c r="H51" s="2">
@@ -2114,58 +2153,58 @@
       </c>
     </row>
     <row r="52" spans="2:11" s="5" customFormat="1" ht="23.1" x14ac:dyDescent="0.85">
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="G52" s="14" t="s">
         <v>194</v>
       </c>
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="2:11" s="6" customFormat="1" ht="10.5" x14ac:dyDescent="0.4">
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="F53" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="G53" s="15" t="s">
         <v>193</v>
       </c>
       <c r="H53" s="3"/>
     </row>
     <row r="54" spans="2:11" ht="11.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B54" s="2">
+      <c r="B54" s="7">
         <v>2</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="7">
         <v>10</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="7">
         <v>18</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="7">
         <v>36</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="7">
         <v>54</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G54" s="7">
         <v>86</v>
       </c>
       <c r="H54" s="2">
@@ -2173,43 +2212,43 @@
       </c>
     </row>
     <row r="55" spans="2:11" ht="23.1" x14ac:dyDescent="0.85">
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F55" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G55" s="8" t="s">
         <v>82</v>
       </c>
       <c r="H55" s="1"/>
     </row>
     <row r="56" spans="2:11" ht="11.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="F56" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="G56" s="3" t="s">
+      <c r="G56" s="9" t="s">
         <v>140</v>
       </c>
       <c r="H56" s="3"/>
